--- a/biology/Zoologie/Comme_chiens_et_chats/Comme_chiens_et_chats.xlsx
+++ b/biology/Zoologie/Comme_chiens_et_chats/Comme_chiens_et_chats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme chiens et chats ou Chats et chiens au Québec (Cats &amp; Dogs) est un film américain réalisé par Lawrence Guterman, sorti en 2001.
 Parodiant les classiques de films d'espionnage, ce film met en scène une lutte entre les chiens et les chats qui, tout en cachant aux humains qu'ils sont doués de parole et du même niveau d'intelligence qu'eux, s'affrontent par le biais de services secrets et de haute technologie. Deux suites, Comme chiens et chats : La Revanche de Kitty Galore, et , Comme chiens et chats : Patte dans la patte, lui furent données.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mr Tinkles, un chat mégalomane, projette de conquérir le monde avec l'aide d'une horde de siamois ninjas. À cette fin, il enlève le chien assigné à la surveillance de la famille du Professeur Brody, un scientifique travaillant sur une formule anti-allergie aux chiens. Les services secrets canins s'empressent de trouver un remplaçant à l'animal enlevé, mais, à la suite d'une erreur, ce dernier se révèle être Lou, un chiot sans expérience, qui se retrouve assigné à un commando d'élite de chiens (Butch, Peek, Sam et Ivy).
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Comme chiens et chats
 Titre original : Cats &amp; Dogs
@@ -553,7 +569,7 @@
 Montage : Rick W. Finney et Michael A. Stevenson
 Producteurs : Ed Jones, Christophe de Faria, Andrew Lazar, Craig Perry et Warren Zide
 Société de distribution : Warner Bros. Pictures
-Budget : 60 millions de dollars[1]
+Budget : 60 millions de dollars
 Langue : anglais
 Dates de sortie :  États-Unis : 4 juillet 2001 ;  France : 15 août 2001
 Dates de sortie DVD :  États-Unis :  ;  France : 20 février 2002</t>
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jeff Goldblum (VF : Richard Darbois et VQ : Jean-Luc Montminy) : Professeur Brody
 Elizabeth Perkins (VF : Pauline Larrieu et VQ : Anne Dorval) : Carolyn Brody
@@ -602,7 +620,7 @@
 Sean Hayes (VF : Bernard Alane) : Mr. Tinkles (voix)
 Salome Jens : Collie au QG des chiens (voix)
 Voix additionnelles : Pierre Hatet
-Source et légende : Version française (VF) sur AlloDoublage[2]</t>
+Source et légende : Version française (VF) sur AlloDoublage</t>
         </is>
       </c>
     </row>
@@ -632,10 +650,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Réception critique
-L'accueil critique de Comme chiens et chats est mitigé. Sur le site Rotten Tomatoes, le long-métrage obtient un taux d'approbation de 52 % pour 119 critiques collectées et une moyenne de 5,2⁄10[3]. Dans son consensus, le site note qu'il s'agit d'« un excellent concept, mais le film ne parvient pas à développer les personnages et certaines blagues sont aléatoires »[3]. Le site Metacritic lui attribue un score de 47⁄100, pour 26 critiques collectées[4].
-Box-office
-Le film connaît un succès commercial au box-office, rapportant 200 687 492 $ de recettes mondiales, dont 93 385 515 $ aux États-Unis[1]. En France, il totalise 865 654 entrées[5].
+          <t>Réception critique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'accueil critique de Comme chiens et chats est mitigé. Sur le site Rotten Tomatoes, le long-métrage obtient un taux d'approbation de 52 % pour 119 critiques collectées et une moyenne de 5,2⁄10. Dans son consensus, le site note qu'il s'agit d'« un excellent concept, mais le film ne parvient pas à développer les personnages et certaines blagues sont aléatoires ». Le site Metacritic lui attribue un score de 47⁄100, pour 26 critiques collectées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Comme_chiens_et_chats</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comme_chiens_et_chats</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sortie et accueil</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film connaît un succès commercial au box-office, rapportant 200 687 492 $ de recettes mondiales, dont 93 385 515 $ aux États-Unis. En France, il totalise 865 654 entrées.
 </t>
         </is>
       </c>
